--- a/config_debug/fish_3d_yutu_gd_smallboss.xlsx
+++ b/config_debug/fish_3d_yutu_gd_smallboss.xlsx
@@ -141,19 +141,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3600,4050,4500,4950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,1700,2200,2700,3200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600,4100,4600,5100,5600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1200,1650,2100,2250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600,4050,4500,4950</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200,1700,2200,2700,3200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600,4100,4600,5100,5600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>11</v>
@@ -606,9 +606,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>7</v>
@@ -625,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -635,9 +633,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -766,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>26</v>
@@ -797,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>26</v>
